--- a/mantenimiento/MANTENIMIENTOESX.xlsx
+++ b/mantenimiento/MANTENIMIENTOESX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Trazability\mantenimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE3DC04-A4CE-4142-93FF-FEA1B44D5E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738CB45A-1F91-4294-973B-55A2EF0E61FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B82EB827-0A21-413A-A403-47A53868444D}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B82EB827-0A21-413A-A403-47A53868444D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>FECHA EMISÍON</t>
   </si>
@@ -195,13 +195,16 @@
   </si>
   <si>
     <t>VALIDA/SUPERVISOR GERENTE ÁREA</t>
+  </si>
+  <si>
+    <t>UNICA VEZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +242,14 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -406,15 +417,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,87 +435,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -518,63 +457,129 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,594 +972,584 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06FAB0E-E30A-409F-A873-13937F000B2E}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" style="3"/>
-    <col min="9" max="9" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.90625" style="3"/>
+    <col min="1" max="1" width="10.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" style="2"/>
+    <col min="9" max="9" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="4" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="5">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="4">
         <v>45323</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="4" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="52"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="52"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="55"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="B29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="42"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="44"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="31"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="46">
-        <v>44663</v>
-      </c>
-      <c r="D31" s="47" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="46">
-        <v>45028</v>
-      </c>
-      <c r="F31" s="48" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51" t="s">
+      <c r="B32" s="58"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="52" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53" t="s">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53" t="s">
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="56"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="40"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="57"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="43"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="57"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="43"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="60"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A34:B37"/>
-    <mergeCell ref="C34:E37"/>
-    <mergeCell ref="F34:H37"/>
-    <mergeCell ref="I34:K37"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="A16:E26"/>
+    <mergeCell ref="F16:G26"/>
+    <mergeCell ref="H16:H26"/>
+    <mergeCell ref="I16:K26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J28:K29"/>
+    <mergeCell ref="A30:K30"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H31:I31"/>
@@ -1563,26 +1558,12 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I33:K33"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J28:K29"/>
-    <mergeCell ref="A30:K30"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="A16:E26"/>
-    <mergeCell ref="F16:G26"/>
-    <mergeCell ref="H16:H26"/>
-    <mergeCell ref="I16:K26"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A34:B37"/>
+    <mergeCell ref="C34:E37"/>
+    <mergeCell ref="F34:H37"/>
+    <mergeCell ref="I34:K37"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
